--- a/ANN_Graphene/Data_Collection_new.xlsx
+++ b/ANN_Graphene/Data_Collection_new.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Trunk/ANN_Graphene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B813C4-BFCC-7949-99AA-2B0D195E3146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E213998-8281-144D-AA3B-976CDE4961FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{674C9ABB-DF4A-42FA-A876-2DEC53DBBDFA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{674C9ABB-DF4A-42FA-A876-2DEC53DBBDFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="plots" sheetId="2" r:id="rId3"/>
+    <sheet name="in gram" sheetId="3" r:id="rId2"/>
+    <sheet name="in vol%" sheetId="5" r:id="rId3"/>
+    <sheet name="plots" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="31">
   <si>
     <t>DW</t>
   </si>
@@ -125,6 +126,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>vol.% of [(G/GA/SDS)/DW)</t>
   </si>
 </sst>
 </file>
@@ -6835,8 +6839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0C96DD-A7AF-4820-8782-B4CC0D092157}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7265,6 +7269,11 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
+      <c r="M12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
@@ -7294,6 +7303,18 @@
       <c r="K13" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="M13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -7323,6 +7344,18 @@
         <v>5</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7358,6 +7391,20 @@
       <c r="K15" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="M15" s="6">
+        <f>H15*0.1</f>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="N15" s="6">
+        <f>I15*0.1</f>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -7391,8 +7438,22 @@
       <c r="K16" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M16" s="6">
+        <f t="shared" ref="M16:M20" si="0">H16*0.1</f>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="6">
+        <f>J16*0.1</f>
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -7424,8 +7485,22 @@
       <c r="K17" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="N17" s="6">
+        <f>I17*0.1</f>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>4</v>
       </c>
@@ -7457,8 +7532,22 @@
       <c r="K18" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="6">
+        <f>J18*0.1</f>
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -7490,8 +7579,22 @@
       <c r="K19" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="N19" s="6">
+        <f>I19*0.1</f>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>6</v>
       </c>
@@ -7523,8 +7626,22 @@
       <c r="K20" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="6">
+        <f>J20*0.1</f>
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -7555,8 +7672,21 @@
       <c r="K21" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="6">
+        <f>I21*0.1</f>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -7587,8 +7717,21 @@
       <c r="K22" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="6">
+        <f>J22*0.1</f>
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -7619,8 +7762,21 @@
       <c r="K23" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="6">
+        <f>I23*0.1</f>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -7651,8 +7807,21 @@
       <c r="K24" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="6">
+        <f>J24*0.1</f>
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>11</v>
       </c>
@@ -7660,7 +7829,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="7">
-        <v>0.21105499999999999</v>
+        <v>2.1105499999999999E-2</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>5</v>
@@ -7675,7 +7844,7 @@
       </c>
       <c r="I25" s="6">
         <f>C25*1000/800</f>
-        <v>0.26381874999999999</v>
+        <v>2.6381874999999999E-2</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>5</v>
@@ -7683,8 +7852,21 @@
       <c r="K25" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="6">
+        <f>I25*0.1</f>
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>12</v>
       </c>
@@ -7715,8 +7897,21 @@
       <c r="K26" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="6">
+        <f>J26*0.1</f>
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>13</v>
       </c>
@@ -7735,7 +7930,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:H32" si="0">B27*1000/800</f>
+        <f t="shared" ref="H27:H32" si="1">B27*1000/800</f>
         <v>0.53030250000000001</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -7747,8 +7942,21 @@
       <c r="K27" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="6">
+        <f>H27*0.1</f>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>14</v>
       </c>
@@ -7767,7 +7975,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26381874999999999</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -7779,8 +7987,21 @@
       <c r="K28" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M28" s="6">
+        <f t="shared" ref="M28:M32" si="2">H28*0.1</f>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>15</v>
       </c>
@@ -7799,7 +8020,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6381874999999999E-2</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -7811,8 +8032,21 @@
       <c r="K29" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M29" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>16</v>
       </c>
@@ -7831,21 +8065,35 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6381874999999999E-2</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" ref="J30:J35" si="1">D30*1000/800</f>
+        <f t="shared" ref="J30:J35" si="3">D30*1000/800</f>
         <v>2.6381874999999999E-2</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M30" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="6">
+        <f>J30*0.1</f>
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>17</v>
       </c>
@@ -7864,21 +8112,35 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26381874999999999</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26381874999999999</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M31" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" ref="O31:O35" si="4">J31*0.1</f>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>18</v>
       </c>
@@ -7897,21 +8159,35 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53030250000000001</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.53030250000000001</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="6">
+        <f t="shared" si="2"/>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="4"/>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>19</v>
       </c>
@@ -7936,14 +8212,27 @@
         <v>5</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.53030250000000001</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="4"/>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>20</v>
       </c>
@@ -7968,14 +8257,27 @@
         <v>5</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26381874999999999</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>21</v>
       </c>
@@ -8000,17 +8302,31 @@
         <v>5</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6381874999999999E-2</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="M35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="H12:J12"/>
+    <mergeCell ref="M12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8021,8 +8337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460C605-E4FD-F944-BD23-B362C2F166F1}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8947,7 +9263,7 @@
         <v>1.4</v>
       </c>
       <c r="E46">
-        <v>0.26381874999999999</v>
+        <v>2.6381874999999999E-2</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
@@ -8967,7 +9283,7 @@
         <v>1.4</v>
       </c>
       <c r="E47">
-        <v>0.26381874999999999</v>
+        <v>2.6381874999999999E-2</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
@@ -8987,7 +9303,7 @@
         <v>1.4</v>
       </c>
       <c r="E48">
-        <v>0.26381874999999999</v>
+        <v>2.6381874999999999E-2</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
@@ -9007,7 +9323,7 @@
         <v>1.4</v>
       </c>
       <c r="E49">
-        <v>0.26381874999999999</v>
+        <v>2.6381874999999999E-2</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
@@ -9863,6 +10179,1851 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5664E6-AF0E-0E48-A938-6C04F5E899AD}">
+  <dimension ref="A1:F92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.1050583339408682</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.9</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.73310923142785656</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.55368331883624056</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.2253332548108891</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.4</v>
+      </c>
+      <c r="E6">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.96977334691808958</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.4</v>
+      </c>
+      <c r="E7">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.79737513770119905</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.4</v>
+      </c>
+      <c r="E8">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.67152670693951022</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.4</v>
+      </c>
+      <c r="E9">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1.1465971545536373</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.01</v>
+      </c>
+      <c r="E10">
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0.91593924560823725</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.01</v>
+      </c>
+      <c r="E11">
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0.75030406816019135</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.01</v>
+      </c>
+      <c r="E12">
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.62551702378780583</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.01</v>
+      </c>
+      <c r="E13">
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.1842022282230813</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.4</v>
+      </c>
+      <c r="E14">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.94484348509653815</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.4</v>
+      </c>
+      <c r="E15">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.77428874215227705</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.4</v>
+      </c>
+      <c r="E16">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.64500938566050758</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.4</v>
+      </c>
+      <c r="E17">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.1455195175481749</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.01</v>
+      </c>
+      <c r="E18">
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.9198956737741425</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.01</v>
+      </c>
+      <c r="E19">
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.74584353927422142</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.01</v>
+      </c>
+      <c r="E20">
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.62163374352023693</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.01</v>
+      </c>
+      <c r="E21">
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.1631254015596748</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D22">
+        <v>1.4</v>
+      </c>
+      <c r="E22">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.92323705016021651</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.4</v>
+      </c>
+      <c r="E23">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.76009988671329298</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>1.4</v>
+      </c>
+      <c r="E24">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.632039558015009</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D25">
+        <v>1.4</v>
+      </c>
+      <c r="E25">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1.166944551238436</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D26">
+        <v>1.01</v>
+      </c>
+      <c r="E26">
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.93174154436802925</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D27">
+        <v>1.01</v>
+      </c>
+      <c r="E27">
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.76206080257416964</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D28">
+        <v>1.01</v>
+      </c>
+      <c r="E28">
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.6366294039046706</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D29">
+        <v>1.01</v>
+      </c>
+      <c r="E29">
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1.2699235044732271</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1.4</v>
+      </c>
+      <c r="E30">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1.0389632119342069</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1.4</v>
+      </c>
+      <c r="E31">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.87916606922416685</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1.4</v>
+      </c>
+      <c r="E32">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.77540794855183837</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1.4</v>
+      </c>
+      <c r="E33">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1.1479683728837096</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1.01</v>
+      </c>
+      <c r="E34">
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.85663093802117107</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1.01</v>
+      </c>
+      <c r="E35">
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.67249428239276232</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1.01</v>
+      </c>
+      <c r="E36">
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.61919866111222921</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1.01</v>
+      </c>
+      <c r="E37">
+        <v>7.9545375000000015E-2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1.1803148423053065</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1.4</v>
+      </c>
+      <c r="E38">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.94600713973242401</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1.4</v>
+      </c>
+      <c r="E39">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.74928283661281836</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1.4</v>
+      </c>
+      <c r="E40">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.52869410119335425</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1.4</v>
+      </c>
+      <c r="E41">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1.218165473978613</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1.01</v>
+      </c>
+      <c r="E42">
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.96917496026602956</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1.01</v>
+      </c>
+      <c r="E43">
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.79947461233836392</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1.01</v>
+      </c>
+      <c r="E44">
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>0.7393022340529164</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1.01</v>
+      </c>
+      <c r="E45">
+        <v>3.9572812499999999E-2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.1658653363758111</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1.4</v>
+      </c>
+      <c r="E46">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.90472676812316044</v>
+      </c>
+      <c r="B47">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1.4</v>
+      </c>
+      <c r="E47">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.70532878102003915</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1.4</v>
+      </c>
+      <c r="E48">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>0.73058114567750421</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1.4</v>
+      </c>
+      <c r="E49">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1.1213670487806435</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1.01</v>
+      </c>
+      <c r="E50">
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.89307502953407192</v>
+      </c>
+      <c r="B51">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1.01</v>
+      </c>
+      <c r="E51">
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.72971143344826894</v>
+      </c>
+      <c r="B52">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1.01</v>
+      </c>
+      <c r="E52">
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>0.452954654450475</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1.01</v>
+      </c>
+      <c r="E53">
+        <v>3.9572812499999999E-3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1.1635134247056205</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.92101719565423923</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.76174040675824073</v>
+      </c>
+      <c r="B56">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.64229925969341928</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1.1527123166912894</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0.8855614444797012</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.70555366983526724</v>
+      </c>
+      <c r="B60">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0.58076174936442682</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1.1471419940317276</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0.91476840426332839</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0.75345157999394208</v>
+      </c>
+      <c r="B64">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0.64378906094198807</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1.1508427026963512</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D66">
+        <v>1.01</v>
+      </c>
+      <c r="E66">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0.91966711155043102</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D67">
+        <v>1.01</v>
+      </c>
+      <c r="E67">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0.75648144242857385</v>
+      </c>
+      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D68">
+        <v>1.01</v>
+      </c>
+      <c r="E68">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0.63837435358829442</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="D69">
+        <v>1.01</v>
+      </c>
+      <c r="E69">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1.1571975537109722</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D70">
+        <v>1.01</v>
+      </c>
+      <c r="E70">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0.92925318783698618</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D71">
+        <v>1.01</v>
+      </c>
+      <c r="E71">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0.75599436581758517</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D72">
+        <v>1.01</v>
+      </c>
+      <c r="E72">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0.64386225148339793</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="D73">
+        <v>1.01</v>
+      </c>
+      <c r="E73">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1.2082384189620652</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D74">
+        <v>1.01</v>
+      </c>
+      <c r="E74">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>0.98113052240668586</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D75">
+        <v>1.01</v>
+      </c>
+      <c r="E75">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>0.81030306089934978</v>
+      </c>
+      <c r="B76">
+        <v>40</v>
+      </c>
+      <c r="C76">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D76">
+        <v>1.01</v>
+      </c>
+      <c r="E76">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>0.71693699058415294</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D77">
+        <v>1.01</v>
+      </c>
+      <c r="E77">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1.1832370582291063</v>
+      </c>
+      <c r="B78">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1.01</v>
+      </c>
+      <c r="E78">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0.92712690165967204</v>
+      </c>
+      <c r="B79">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1.01</v>
+      </c>
+      <c r="E79">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0.76126733195083551</v>
+      </c>
+      <c r="B80">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1.01</v>
+      </c>
+      <c r="E80">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>0.68842677867569935</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1.01</v>
+      </c>
+      <c r="E81">
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1.1928516106310325</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1.01</v>
+      </c>
+      <c r="E82">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>0.96231723071513442</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1.01</v>
+      </c>
+      <c r="E83">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>0.83211970183437234</v>
+      </c>
+      <c r="B84">
+        <v>40</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1.01</v>
+      </c>
+      <c r="E84">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0.73064723294087475</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1.01</v>
+      </c>
+      <c r="E85">
+        <v>2.6381874999999999E-2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1.2014101992465536</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1.01</v>
+      </c>
+      <c r="E86">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>0.97385084411336231</v>
+      </c>
+      <c r="B87">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1.01</v>
+      </c>
+      <c r="E87">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0.82297974092958692</v>
+      </c>
+      <c r="B88">
+        <v>40</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1.01</v>
+      </c>
+      <c r="E88">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>0.7061240385826355</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1.01</v>
+      </c>
+      <c r="E89">
+        <v>2.6381874999999999E-3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f>MIN(A2:A89)</f>
+        <v>0.452954654450475</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91:E91" si="0">MIN(B2:B89)</f>
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f>MAX(A2:A89)</f>
+        <v>1.2699235044732271</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92:E92" si="1">MAX(B2:B89)</f>
+        <v>50</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>5.3030250000000001E-2</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>7.9545375000000015E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BE4C98-DC88-4C33-A3AF-AF338FD24A59}">
   <dimension ref="S1"/>
   <sheetViews>
